--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_9_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_9_sawtooth_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.74000000000058</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01229837526274202</v>
+        <v>0.001886677224974487</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07669832614923502</v>
+        <v>0.006251404355097701</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.172523604985711</v>
+        <v>5.806617300348369</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.9895878309307395, 9.355459379040683]</t>
+          <t>[1.729857434801854, 9.883377165894883]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.01564051438314462</v>
+        <v>0.005482015466018231</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01564051438314462</v>
+        <v>0.005482015466018231</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.358526552903694</v>
+        <v>-1.358526552903695</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.4654741145289267, -0.25157899127846095]</t>
+          <t>[-2.2013161736865428, -0.5157369321208467]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.01642710398219926</v>
+        <v>0.001722998105908813</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03285420796439853</v>
+        <v>0.001722998105908813</v>
       </c>
       <c r="S2" t="n">
-        <v>12.63016539025435</v>
+        <v>14.93832568517827</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.222882709738695, 15.037448070770015]</t>
+          <t>[12.675768015375517, 17.200883354981023]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.619459459459595</v>
+        <v>5.565405405405532</v>
       </c>
       <c r="X2" t="n">
-        <v>1.040640640640664</v>
+        <v>2.112792792792838</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.19827827827853</v>
+        <v>9.018018018018225</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,55 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>22.54000000000008</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003365205253928583</v>
+        <v>6.010938985612224e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07669832614923502</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.07851497190075374</v>
-      </c>
+        <v>0.0008291913948715868</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.312922981254474</v>
+        <v>7.044416417028114</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.2936829044843083, 9.33216305802464]</t>
+          <t>[3.1908572094323784, 10.89797562462385]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.009792949740521362</v>
+        <v>0.0003857109660845293</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01564051438314462</v>
+        <v>0.0007714219321690585</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5849211547224238</v>
+        <v>1.817658211986887</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.15723686954903915, 1.3270791789938867]</t>
+          <t>[1.1887107337907326, 2.446605690183042]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.1218420432172784</v>
+        <v>3.667313719368792e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1218420432172784</v>
+        <v>7.334627438737584e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>13.72980840903239</v>
+        <v>14.21188618180092</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.563693216185374, 15.895923601879407]</t>
+          <t>[12.052437888559396, 16.37133447504244]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.95195195195195</v>
+        <v>16.01941941941948</v>
       </c>
       <c r="X3" t="n">
-        <v>17.35335335335335</v>
+        <v>13.76316316316321</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.55055055055055</v>
+        <v>18.27567567567574</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_9_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_9_sawtooth_01_.xlsx
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.74000000000058</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001886677224974487</v>
+        <v>0.04844406084702202</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006251404355097701</v>
+        <v>0.1077949371912593</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.806617300348369</v>
+        <v>3.825310587775202</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.729857434801854, 9.883377165894883]</t>
+          <t>[-0.3261977420113489, 7.9768189175617525]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.005482015466018231</v>
+        <v>0.07070858117868939</v>
       </c>
       <c r="N2" t="n">
-        <v>0.005482015466018231</v>
+        <v>0.07070858117868939</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.358526552903695</v>
+        <v>-0.9685791164220783</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.2013161736865428, -0.5157369321208467]</t>
+          <t>[-2.893158399702312, 0.9560001668581553]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.001722998105908813</v>
+        <v>0.3221040321480713</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001722998105908813</v>
+        <v>0.3221040321480713</v>
       </c>
       <c r="S2" t="n">
-        <v>14.93832568517827</v>
+        <v>12.50844024368291</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.675768015375517, 17.200883354981023]</t>
+          <t>[10.322751831925263, 14.694128655440547]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.565405405405532</v>
+        <v>3.830730730730799</v>
       </c>
       <c r="X2" t="n">
-        <v>2.112792792792838</v>
+        <v>-3.780980980981048</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.018018018018225</v>
+        <v>11.44244244244265</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.54000000000008</v>
+        <v>23.02000000000016</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.010938985612224e-05</v>
+        <v>0.01117106959097736</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008291913948715868</v>
+        <v>0.09322967265160072</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>7.044416417028114</v>
+        <v>4.30064559408796</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.1908572094323784, 10.89797562462385]</t>
+          <t>[0.5283582454890414, 8.072932942686878]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0003857109660845293</v>
+        <v>0.02562914145305406</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0007714219321690585</v>
+        <v>0.05125828290610812</v>
       </c>
       <c r="O3" t="n">
-        <v>1.817658211986887</v>
+        <v>2.345974093671658</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.1887107337907326, 2.446605690183042]</t>
+          <t>[1.6163950189641172, 3.075553168379198]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.667313719368792e-08</v>
+        <v>1.184897513439864e-09</v>
       </c>
       <c r="R3" t="n">
-        <v>7.334627438737584e-08</v>
+        <v>2.369795026879729e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>14.21188618180092</v>
+        <v>12.79599715628583</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.052437888559396, 16.37133447504244]</t>
+          <t>[10.821196826895942, 14.770797485675722]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>16.01941941941948</v>
+        <v>14.42494494494504</v>
       </c>
       <c r="X3" t="n">
-        <v>13.76316316316321</v>
+        <v>11.75195195195203</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.27567567567574</v>
+        <v>17.09793793793806</v>
       </c>
     </row>
   </sheetData>
